--- a/docs/r01lib_pin_table.xlsx
+++ b/docs/r01lib_pin_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedd/Desktop/dl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E2AD61-242A-7A4E-899E-6345F861F63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB4D715-4630-C242-AF9C-01A4DE395FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="3460" windowWidth="37620" windowHeight="32540" xr2:uid="{F4A4BD97-1D13-3141-8799-357F4902D58A}"/>
+    <workbookView xWindow="24600" yWindow="3460" windowWidth="37620" windowHeight="32540" activeTab="4" xr2:uid="{F4A4BD97-1D13-3141-8799-357F4902D58A}"/>
   </bookViews>
   <sheets>
     <sheet name="N947" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="316">
   <si>
     <t>FRDM-MCXN947</t>
     <phoneticPr fontId="1"/>
@@ -1145,6 +1145,10 @@
   </si>
   <si>
     <t>Revision history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"r01lib pin names" tables are updated to clarify the pins which have multiple names</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1374,6 +1378,18 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,18 +1416,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A489A-C92A-D94A-9707-BFF2AAF99037}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="A3:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="14"/>
@@ -1769,19 +1773,19 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="2" t="s">
@@ -2027,7 +2031,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2050,7 +2054,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="16"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
@@ -2071,7 +2075,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
@@ -2092,7 +2096,7 @@
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
@@ -2111,7 +2115,7 @@
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="4"/>
@@ -2134,7 +2138,7 @@
       <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
@@ -2406,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="16" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="4"/>
@@ -2429,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:14">
@@ -2493,46 +2497,46 @@
       <c r="A45" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="C46" s="11">
+      <c r="C46" s="15">
         <v>0</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15">
         <v>1</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11">
+      <c r="F46" s="15"/>
+      <c r="G46" s="15">
         <v>2</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11">
+      <c r="H46" s="15"/>
+      <c r="I46" s="15">
         <v>3</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11">
+      <c r="J46" s="15"/>
+      <c r="K46" s="15">
         <v>4</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11">
+      <c r="L46" s="15"/>
+      <c r="M46" s="15">
         <v>5</v>
       </c>
-      <c r="N46" s="11"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14">
       <c r="C47" s="3" t="s">
@@ -2573,7 +2577,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B48" s="3">
@@ -2617,7 +2621,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="11"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="3">
         <f>B48+1</f>
         <v>1</v>
@@ -2660,7 +2664,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="11"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="3">
         <f t="shared" ref="B50:B79" si="0">B49+1</f>
         <v>2</v>
@@ -2703,7 +2707,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2746,7 +2750,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2789,7 +2793,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2832,7 +2836,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2875,7 +2879,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="11"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2918,7 +2922,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2957,7 +2961,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="11"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2996,7 +3000,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3031,7 +3035,7 @@
       <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3066,7 +3070,7 @@
       <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="11"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3101,7 +3105,7 @@
       <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3136,7 +3140,7 @@
       <c r="N61" s="9"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3171,7 +3175,7 @@
       <c r="N62" s="9"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="11"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3206,7 +3210,7 @@
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="11"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3241,7 +3245,7 @@
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="11"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3276,7 +3280,7 @@
       <c r="N65" s="9"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="11"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3311,7 +3315,7 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="11"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3346,7 +3350,7 @@
       <c r="N67" s="9"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="11"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3381,7 +3385,7 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="11"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3416,7 +3420,7 @@
       <c r="N69" s="9"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="11"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3451,7 +3455,7 @@
       <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="11"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3486,7 +3490,7 @@
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="11"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3509,7 +3513,7 @@
       <c r="N72" s="9"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="11"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3532,7 +3536,7 @@
       <c r="N73" s="9"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="11"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3555,7 +3559,7 @@
       <c r="N74" s="9"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="11"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3578,7 +3582,7 @@
       <c r="N75" s="9"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="11"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3601,7 +3605,7 @@
       <c r="N76" s="9"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="11"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3624,7 +3628,7 @@
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="11"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3651,7 +3655,7 @@
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="11"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3723,19 +3727,19 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="2" t="s">
@@ -3770,7 +3774,9 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>67</v>
@@ -3789,7 +3795,9 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>68</v>
@@ -3975,7 +3983,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3998,7 +4006,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
@@ -4019,7 +4027,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
@@ -4040,7 +4048,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
@@ -4062,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="3"/>
@@ -4085,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
@@ -4183,7 +4191,7 @@
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="3"/>
@@ -4206,7 +4214,7 @@
       <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
@@ -4370,7 +4378,9 @@
       <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
         <v>67</v>
@@ -4389,7 +4399,9 @@
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
         <v>99</v>
@@ -4419,7 +4431,7 @@
       <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="3"/>
@@ -4440,7 +4452,7 @@
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -4505,46 +4517,46 @@
       <c r="A46" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="C47" s="11">
+      <c r="C47" s="15">
         <v>0</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15">
         <v>1</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15">
         <v>2</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11">
+      <c r="H47" s="15"/>
+      <c r="I47" s="15">
         <v>3</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11">
+      <c r="J47" s="15"/>
+      <c r="K47" s="15">
         <v>4</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11">
+      <c r="L47" s="15"/>
+      <c r="M47" s="15">
         <v>5</v>
       </c>
-      <c r="N47" s="11"/>
+      <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14">
       <c r="C48" s="3" t="s">
@@ -4585,7 +4597,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3">
@@ -4629,7 +4641,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="11"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="3">
         <f>B49+1</f>
         <v>1</v>
@@ -4672,7 +4684,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="3">
         <f t="shared" ref="B51:B80" si="0">B50+1</f>
         <v>2</v>
@@ -4715,7 +4727,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4754,7 +4766,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4793,7 +4805,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4832,7 +4844,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="11"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4875,7 +4887,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4918,7 +4930,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="11"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4949,7 +4961,7 @@
       <c r="N57" s="9"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4980,7 +4992,7 @@
       <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5011,7 +5023,7 @@
       <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="11"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5042,7 +5054,7 @@
       <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5073,7 +5085,7 @@
       <c r="N61" s="9"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5104,7 +5116,7 @@
       <c r="N62" s="9"/>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="11"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5139,7 +5151,7 @@
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="11"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5174,7 +5186,7 @@
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="11"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5209,7 +5221,7 @@
       <c r="N65" s="9"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="11"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5244,7 +5256,7 @@
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="11"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5279,7 +5291,7 @@
       <c r="N67" s="9"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="11"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5310,7 +5322,7 @@
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="11"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5341,7 +5353,7 @@
       <c r="N69" s="9"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="11"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5372,7 +5384,7 @@
       <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="11"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5403,7 +5415,7 @@
       <c r="N71" s="9"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="11"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5434,7 +5446,7 @@
       <c r="N72" s="9"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="11"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5457,7 +5469,7 @@
       <c r="N73" s="9"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="11"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5480,7 +5492,7 @@
       <c r="N74" s="9"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="11"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5503,7 +5515,7 @@
       <c r="N75" s="9"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="11"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5526,7 +5538,7 @@
       <c r="N76" s="9"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="11"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5549,7 +5561,7 @@
       <c r="N77" s="9"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="11"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5572,7 +5584,7 @@
       <c r="N78" s="9"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="11"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5595,7 +5607,7 @@
       <c r="N79" s="9"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="11"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5641,10 +5653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DDC342-09CC-8E4E-BCBC-273824CBDD0A}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="A3:I42"/>
+      <selection activeCell="I41" sqref="A3:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="14"/>
@@ -5663,19 +5675,19 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="2" t="s">
@@ -5995,10 +6007,10 @@
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="3"/>
@@ -6022,8 +6034,8 @@
       <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
@@ -6163,7 +6175,9 @@
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
         <v>144</v>
@@ -6197,7 +6211,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6222,7 +6236,7 @@
         <v>48</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
@@ -6243,7 +6257,7 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
@@ -6266,7 +6280,7 @@
         <v>51</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
@@ -6359,7 +6373,7 @@
       <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="3"/>
@@ -6380,7 +6394,7 @@
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -6422,123 +6436,137 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+    <row r="45" spans="1:12">
+      <c r="A45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="C46" s="15">
+        <v>0</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15">
+        <v>2</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15">
+        <v>3</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15">
+        <v>4</v>
+      </c>
+      <c r="L46" s="15"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="C47" s="11">
+      <c r="C47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="3">
         <v>0</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="C48" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="15"/>
+      <c r="B49" s="3">
+        <f>B48+1</f>
         <v>1</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11">
-        <v>2</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11">
-        <v>3</v>
-      </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11">
-        <v>4</v>
-      </c>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="C48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
       <c r="C49" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>171</v>
@@ -6547,58 +6575,58 @@
       <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="11"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="3">
-        <f>B49+1</f>
-        <v>1</v>
+        <f t="shared" ref="B50:B79" si="0">B49+1</f>
+        <v>2</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="3">
-        <f t="shared" ref="B51:B80" si="0">B50+1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>171</v>
@@ -6606,32 +6634,28 @@
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="3" t="s">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>170</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>171</v>
@@ -6639,28 +6663,28 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>171</v>
@@ -6668,121 +6692,117 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="E54" s="3" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="I54" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="K54" s="3" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="11"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>171</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="11"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>171</v>
@@ -6790,7 +6810,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>171</v>
@@ -6799,23 +6819,27 @@
       <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="G58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="I58" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>171</v>
@@ -6824,27 +6848,27 @@
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>171</v>
+      <c r="E59" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>171</v>
@@ -6853,27 +6877,27 @@
       <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="11"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>170</v>
+      <c r="E60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>171</v>
@@ -6882,27 +6906,27 @@
       <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="3" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>171</v>
+      <c r="G61" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>171</v>
@@ -6911,27 +6935,27 @@
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="3" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>170</v>
+      <c r="G62" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>171</v>
@@ -6940,27 +6964,27 @@
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="11"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>171</v>
@@ -6969,27 +6993,27 @@
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="11"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>171</v>
@@ -6998,27 +7022,23 @@
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="11"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>171</v>
@@ -7027,13 +7047,13 @@
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="11"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>171</v>
@@ -7043,7 +7063,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>171</v>
@@ -7052,23 +7072,27 @@
       <c r="L66" s="9"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="11"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
+      <c r="G67" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="I67" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>171</v>
@@ -7077,13 +7101,13 @@
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="11"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>171</v>
@@ -7091,13 +7115,13 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>249</v>
+        <v>121</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>171</v>
@@ -7106,13 +7130,13 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="11"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>171</v>
@@ -7120,13 +7144,13 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>171</v>
@@ -7135,27 +7159,23 @@
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="11"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>171</v>
@@ -7164,60 +7184,52 @@
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="11"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="G71" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="11"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="11"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -7231,10 +7243,10 @@
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="11"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -7248,10 +7260,10 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="11"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -7259,16 +7271,20 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="I75" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="11"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -7277,7 +7293,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="3" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>171</v>
@@ -7286,19 +7302,23 @@
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="11"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>171</v>
@@ -7307,15 +7327,15 @@
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="11"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>170</v>
@@ -7323,7 +7343,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="3" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>171</v>
@@ -7332,15 +7352,15 @@
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="11"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>170</v>
@@ -7348,38 +7368,13 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>171</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="11"/>
-      <c r="B80" s="3">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7389,13 +7384,13 @@
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A49:A80"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="A48:A79"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7407,7 +7402,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="I43" sqref="A3:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="14"/>
@@ -7426,19 +7421,19 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="2" t="s">
@@ -7551,7 +7546,9 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
         <v>128</v>
@@ -7612,7 +7609,9 @@
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>130</v>
@@ -7631,7 +7630,9 @@
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>131</v>
@@ -7650,7 +7651,9 @@
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>132</v>
@@ -7684,7 +7687,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7707,7 +7710,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
@@ -7728,7 +7731,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
@@ -7749,7 +7752,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
@@ -7768,10 +7771,10 @@
       <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="3"/>
@@ -7793,8 +7796,8 @@
       <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9">
@@ -7896,7 +7899,9 @@
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
         <v>143</v>
@@ -7915,7 +7920,9 @@
       <c r="A28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
         <v>148</v>
@@ -7934,7 +7941,9 @@
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
         <v>130</v>
@@ -8052,7 +8061,9 @@
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
         <v>128</v>
@@ -8071,7 +8082,9 @@
       <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
         <v>78</v>
@@ -8090,7 +8103,9 @@
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
         <v>131</v>
@@ -8120,7 +8135,7 @@
       <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="3"/>
@@ -8141,7 +8156,7 @@
       <c r="F39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
@@ -8161,7 +8176,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I40" s="3"/>
@@ -8182,7 +8197,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="11"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:10">
@@ -8227,34 +8242,34 @@
       <c r="A47" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="C48" s="11">
+      <c r="C48" s="15">
         <v>0</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15">
         <v>1</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15">
         <v>2</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15">
         <v>3</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10">
       <c r="C49" s="3" t="s">
@@ -8283,7 +8298,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="15" t="s">
         <v>175</v>
       </c>
       <c r="B50" s="3">
@@ -8315,7 +8330,7 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="3">
         <f>B50+1</f>
         <v>1</v>
@@ -8346,7 +8361,7 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="3">
         <f t="shared" ref="B52:B81" si="0">B51+1</f>
         <v>2</v>
@@ -8373,7 +8388,7 @@
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8400,7 +8415,7 @@
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8423,7 +8438,7 @@
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="11"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8446,7 +8461,7 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8477,7 +8492,7 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="11"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8504,7 +8519,7 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8527,7 +8542,7 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8550,7 +8565,7 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="11"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8573,7 +8588,7 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8596,7 +8611,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8623,7 +8638,7 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="11"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8650,7 +8665,7 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="11"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8669,7 +8684,7 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="11"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8688,7 +8703,7 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="11"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8711,7 +8726,7 @@
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="11"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8730,7 +8745,7 @@
       <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="11"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8745,7 +8760,7 @@
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="11"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8760,7 +8775,7 @@
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="11"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8775,7 +8790,7 @@
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="11"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8790,7 +8805,7 @@
       <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="11"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8805,7 +8820,7 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="11"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8820,7 +8835,7 @@
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="11"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8835,7 +8850,7 @@
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="11"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8850,7 +8865,7 @@
       <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="11"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8865,7 +8880,7 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="11"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8884,7 +8899,7 @@
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="11"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8903,7 +8918,7 @@
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="11"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8926,7 +8941,7 @@
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="11"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8949,7 +8964,7 @@
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="11"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8996,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B196AF6E-D7DC-784B-81AC-FEE28822A71B}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9013,124 +9028,128 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="20">
+      <c r="B4" s="11">
         <v>45406</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="20">
+      <c r="B5" s="11">
         <v>45480</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="20">
+      <c r="B6" s="11">
         <v>45635</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="20">
+      <c r="B7" s="11">
         <v>45635</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="20">
+      <c r="B8" s="11">
         <v>45635</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="12" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="11">
+        <v>45636</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/r01lib_pin_table.xlsx
+++ b/docs/r01lib_pin_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tedd/Desktop/dl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB4D715-4630-C242-AF9C-01A4DE395FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E27794-1FB3-4D41-98E7-7C89278904C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24600" yWindow="3460" windowWidth="37620" windowHeight="32540" activeTab="4" xr2:uid="{F4A4BD97-1D13-3141-8799-357F4902D58A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="317">
   <si>
     <t>FRDM-MCXN947</t>
     <phoneticPr fontId="1"/>
@@ -1149,6 +1149,10 @@
   </si>
   <si>
     <t>"r01lib pin names" tables are updated to clarify the pins which have multiple names</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N236 P1_8 and P1_9 are re-assigned as VCOM pins to enable UART printf output</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3683,11 +3687,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="I16:I19"/>
     <mergeCell ref="A48:A79"/>
     <mergeCell ref="C45:N45"/>
     <mergeCell ref="C46:D46"/>
@@ -3696,6 +3695,11 @@
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="I16:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3707,8 +3711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF8339D-3246-D248-B338-467DAA04C626}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="A3:I42"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.7109375" defaultRowHeight="14"/>
@@ -4937,11 +4941,11 @@
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>171</v>
+      <c r="E57" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>274</v>
@@ -4968,11 +4972,11 @@
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>171</v>
+      <c r="F58" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>275</v>
@@ -5631,12 +5635,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="I16:I19"/>
     <mergeCell ref="A49:A80"/>
     <mergeCell ref="C46:N46"/>
     <mergeCell ref="C47:D47"/>
@@ -5645,6 +5643,12 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M47:N47"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="I16:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7378,12 +7382,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
     <mergeCell ref="A48:A79"/>
     <mergeCell ref="C45:L45"/>
     <mergeCell ref="C46:D46"/>
@@ -7391,6 +7389,12 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8988,6 +8992,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A50:A81"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="G38:G39"/>
@@ -8995,12 +9005,6 @@
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A50:A81"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9012,7 +9016,7 @@
   <dimension ref="B2:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9084,8 +9088,12 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11">
+        <v>45637</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="11"/>
@@ -9158,15 +9166,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C98D15B0064474782E8EDBA35A51CC2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="84bc66ae19ca557e54d7014d86ef62c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6946600b-d432-4ec1-a6de-e6a1f3354bfd" xmlns:ns3="43135f08-7c27-4a7c-bc6d-152a25501e39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f294aa8e50c0a16a8ee0b06cd98abedc" ns2:_="" ns3:_="">
     <xsd:import namespace="6946600b-d432-4ec1-a6de-e6a1f3354bfd"/>
@@ -9373,6 +9372,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9385,14 +9393,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993051E6-CE55-49FB-9812-9A2B302725FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A02F2913-AEC8-45FD-9F40-2703FA5F6AAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9411,6 +9411,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993051E6-CE55-49FB-9812-9A2B302725FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D7A352-4E74-4D3B-B371-7F84A478DD81}">
   <ds:schemaRefs>
